--- a/AI/solution_annxor.xlsx
+++ b/AI/solution_annxor.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="work" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -914,11 +914,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="31">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E2" s="14">
         <v>0</v>
@@ -1058,35 +1058,35 @@
         <v>0</v>
       </c>
       <c r="G2" s="16">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="H2" s="13">
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="I2" s="14">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J2" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" s="16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L2" s="13">
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="M2" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N2" s="15">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="O2" s="45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P2" s="32">
         <f>$A2*D2+$B2*H2+$C2*L2</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="8">
         <f>$A2*E2+$B2*I2+$C2*M2</f>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="S2" s="30">
         <f>$A2*G2+$B2*K2+$C2*O2</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="T2" s="42">
         <v>1</v>
@@ -1141,11 +1141,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:O5" si="0">D$2</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:O5" si="0">E$2</f>
         <v>0</v>
       </c>
       <c r="F3" s="9">
@@ -1154,39 +1153,39 @@
       </c>
       <c r="G3" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J3" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="M3" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="O3" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P3" s="32">
         <f t="shared" ref="P3:P5" si="1">$A3*D3+$B3*H3+$C3*L3</f>
@@ -1194,11 +1193,11 @@
       </c>
       <c r="Q3" s="8">
         <f t="shared" ref="Q3:Q5" si="2">$A3*E3+$B3*I3+$C3*M3</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" s="18">
         <f t="shared" ref="R3:R5" si="3">$A3*F3+$B3*J3+$C3*N3</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="S3" s="30">
         <f t="shared" ref="S3:S5" si="4">$A3*G3+$B3*K3+$C3*O3</f>
@@ -1246,7 +1245,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
@@ -1258,39 +1257,39 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P4" s="32">
         <f t="shared" si="1"/>
@@ -1298,11 +1297,11 @@
       </c>
       <c r="Q4" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="R4" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" s="30">
         <f t="shared" si="4"/>
@@ -1350,7 +1349,7 @@
       </c>
       <c r="D5" s="46">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E5" s="20">
         <f t="shared" si="0"/>
@@ -1362,43 +1361,43 @@
       </c>
       <c r="G5" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="H5" s="46">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="I5" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J5" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K5" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L5" s="46">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="M5" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="O5" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P5" s="33">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="Q5" s="34">
         <f t="shared" si="2"/>
@@ -1410,7 +1409,7 @@
       </c>
       <c r="S5" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T5" s="39">
         <v>0</v>
@@ -1461,7 +1460,7 @@
       </c>
       <c r="F8" s="21">
         <f>D2</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G8" s="19">
         <f>E2</f>
@@ -1473,7 +1472,7 @@
       </c>
       <c r="I8" s="22">
         <f>G2</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -1482,19 +1481,19 @@
       </c>
       <c r="F9" s="23">
         <f>H2</f>
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="G9" s="3">
         <f>I2</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="H9" s="4">
         <f>J2</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I9" s="24">
         <f>K2</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1503,19 +1502,19 @@
       </c>
       <c r="F10" s="25">
         <f>L2</f>
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="G10" s="20">
         <f>M2</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="28">
         <f>N2</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="I10" s="26">
         <f>O2</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -1540,11 +1539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0E69D4-4E78-4AA5-854F-C181FE5D72BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:AB5"/>
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/AI/solution_annxor.xlsx
+++ b/AI/solution_annxor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="work" sheetId="1" r:id="rId1"/>
@@ -917,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
@@ -1543,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0E69D4-4E78-4AA5-854F-C181FE5D72BA}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:AB5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1572,6 +1572,10 @@
     <col min="21" max="21" width="4.875" customWidth="1"/>
     <col min="22" max="22" width="5.25" customWidth="1"/>
     <col min="23" max="23" width="4.125" customWidth="1"/>
+    <col min="24" max="25" width="5.875" customWidth="1"/>
+    <col min="26" max="26" width="5.75" customWidth="1"/>
+    <col min="27" max="27" width="5.875" customWidth="1"/>
+    <col min="28" max="28" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
